--- a/results/mp/deberta/corona/confidence/168/stop-words-topk-0.35/avg_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-topk-0.35/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="1018">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="1018">
   <si>
     <t>anchor score</t>
   </si>
@@ -283,652 +283,652 @@
     <t>infection</t>
   </si>
   <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>expert</t>
+  </si>
+  <si>
+    <t>dedicated</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>causes</t>
+  </si>
+  <si>
+    <t>complaint</t>
+  </si>
+  <si>
+    <t>consumption</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>loss</t>
+  </si>
+  <si>
+    <t>bloody</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>unemployment</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>kits</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>insights</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>feels</t>
+  </si>
+  <si>
+    <t>surprise</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>damn</t>
+  </si>
+  <si>
+    <t>charging</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>donations</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>guidance</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>complaints</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>trading</t>
+  </si>
+  <si>
+    <t>helpful</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>crash</t>
+  </si>
+  <si>
+    <t>battle</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>mortgage</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>fine</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>deliveries</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>fighting</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>limited</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>lost</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>rolls</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>consider</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>caused</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>trends</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>especially</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>stimulus</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>putting</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>companies</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>police</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>retailers</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>latest</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>another</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>next</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>sales</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>virus</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>due</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>workers</t>
+  </si>
+  <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>expert</t>
-  </si>
-  <si>
-    <t>dedicated</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>causes</t>
-  </si>
-  <si>
-    <t>complaint</t>
-  </si>
-  <si>
-    <t>consumption</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>loss</t>
-  </si>
-  <si>
-    <t>bloody</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>unemployment</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>kits</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>insights</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>feels</t>
-  </si>
-  <si>
-    <t>surprise</t>
-  </si>
-  <si>
-    <t>options</t>
-  </si>
-  <si>
-    <t>critical</t>
-  </si>
-  <si>
-    <t>damn</t>
-  </si>
-  <si>
-    <t>charging</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>donations</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>guidance</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>complaints</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>amazing</t>
   </si>
   <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>trading</t>
-  </si>
-  <si>
-    <t>helpful</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>debt</t>
-  </si>
-  <si>
-    <t>crash</t>
-  </si>
-  <si>
-    <t>battle</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>mortgage</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>fine</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>deliveries</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>fighting</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>limited</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>lost</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>rolls</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>consider</t>
-  </si>
-  <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>caused</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>trends</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>especially</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>whole</t>
-  </si>
-  <si>
-    <t>tests</t>
-  </si>
-  <si>
-    <t>cancelled</t>
-  </si>
-  <si>
-    <t>stimulus</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>putting</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>set</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>affected</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>companies</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>police</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>retailers</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>global</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>latest</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>another</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>sales</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>customers</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>virus</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>due</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>workers</t>
-  </si>
-  <si>
-    <t>oil</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>amazing</t>
   </si>
   <si>
     <t>friend</t>
@@ -3433,10 +3433,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3565,7 +3565,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K4">
         <v>0.8983050847457628</v>
@@ -3665,7 +3665,7 @@
         <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K6">
         <v>0.8198198198198198</v>
@@ -3715,7 +3715,7 @@
         <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K7">
         <v>0.8188976377952756</v>
@@ -3815,7 +3815,7 @@
         <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K9">
         <v>0.7875</v>
@@ -3865,7 +3865,7 @@
         <v>13</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K10">
         <v>0.7619047619047619</v>
@@ -3915,7 +3915,7 @@
         <v>17</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K11">
         <v>0.7452229299363057</v>
@@ -3965,7 +3965,7 @@
         <v>145</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K12">
         <v>0.7222222222222222</v>
@@ -4015,7 +4015,7 @@
         <v>3</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K13">
         <v>0.6923076923076923</v>
@@ -4065,7 +4065,7 @@
         <v>4</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K14">
         <v>0.6896551724137931</v>
@@ -4115,28 +4115,28 @@
         <v>4</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>89</v>
+        <v>221</v>
       </c>
       <c r="K15">
-        <v>0.6826086956521739</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L15">
-        <v>157</v>
+        <v>94</v>
       </c>
       <c r="M15">
-        <v>166</v>
+        <v>95</v>
       </c>
       <c r="N15">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="O15">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P15" t="b">
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>73</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -4165,28 +4165,28 @@
         <v>6</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>223</v>
+        <v>302</v>
       </c>
       <c r="K16">
-        <v>0.6666666666666666</v>
+        <v>0.6569037656903766</v>
       </c>
       <c r="L16">
-        <v>94</v>
+        <v>157</v>
       </c>
       <c r="M16">
-        <v>95</v>
+        <v>157</v>
       </c>
       <c r="N16">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>47</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -4265,7 +4265,7 @@
         <v>3</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K18">
         <v>0.6296296296296297</v>
@@ -4315,7 +4315,7 @@
         <v>8</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K19">
         <v>0.5978260869565217</v>
@@ -4365,7 +4365,7 @@
         <v>8</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K20">
         <v>0.5652173913043478</v>
@@ -4415,7 +4415,7 @@
         <v>6</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K21">
         <v>0.5555555555555556</v>
@@ -4465,28 +4465,28 @@
         <v>4</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="K22">
-        <v>0.5531914893617021</v>
+        <v>0.5441176470588235</v>
       </c>
       <c r="L22">
-        <v>182</v>
+        <v>37</v>
       </c>
       <c r="M22">
-        <v>193</v>
+        <v>39</v>
       </c>
       <c r="N22">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="O22">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P22" t="b">
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>147</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -4515,28 +4515,28 @@
         <v>10</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>144</v>
+        <v>304</v>
       </c>
       <c r="K23">
-        <v>0.5441176470588235</v>
+        <v>0.5352941176470588</v>
       </c>
       <c r="L23">
-        <v>37</v>
+        <v>182</v>
       </c>
       <c r="M23">
-        <v>39</v>
+        <v>182</v>
       </c>
       <c r="N23">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>31</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -4615,7 +4615,7 @@
         <v>4</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K25">
         <v>0.5142857142857142</v>
@@ -4715,7 +4715,7 @@
         <v>4</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K27">
         <v>0.5</v>
@@ -4765,7 +4765,7 @@
         <v>4</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K28">
         <v>0.4827586206896552</v>
@@ -4915,7 +4915,7 @@
         <v>13</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K31">
         <v>0.4450261780104712</v>
@@ -5115,7 +5115,7 @@
         <v>5</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K35">
         <v>0.4204545454545455</v>
@@ -5865,7 +5865,7 @@
         <v>7</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K50">
         <v>0.3478260869565217</v>
@@ -6015,7 +6015,7 @@
         <v>21</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K53">
         <v>0.3333333333333333</v>
@@ -6265,7 +6265,7 @@
         <v>5</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K58">
         <v>0.3125</v>
@@ -6365,7 +6365,7 @@
         <v>5</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K60">
         <v>0.3125</v>
@@ -6615,7 +6615,7 @@
         <v>6</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K65">
         <v>0.2962962962962963</v>
@@ -6665,7 +6665,7 @@
         <v>6</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K66">
         <v>0.2957746478873239</v>
@@ -7165,7 +7165,7 @@
         <v>7</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K76">
         <v>0.2777777777777778</v>
@@ -7215,7 +7215,7 @@
         <v>7</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K77">
         <v>0.2777777777777778</v>
@@ -7365,7 +7365,7 @@
         <v>45</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K80">
         <v>0.2666666666666667</v>
@@ -7515,7 +7515,7 @@
         <v>8</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K83">
         <v>0.2666666666666667</v>
@@ -7544,28 +7544,28 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.1097560975609756</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="C84">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D84">
-        <v>166</v>
+        <v>2</v>
       </c>
       <c r="E84">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K84">
         <v>0.2658227848101266</v>
@@ -7597,10 +7597,10 @@
         <v>0.1052631578947368</v>
       </c>
       <c r="C85">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -7612,7 +7612,7 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>346</v>
@@ -7647,10 +7647,10 @@
         <v>0.1052631578947368</v>
       </c>
       <c r="C86">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -7662,7 +7662,7 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>347</v>
@@ -7700,16 +7700,16 @@
         <v>2</v>
       </c>
       <c r="D87">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87">
         <v>17</v>
@@ -7744,28 +7744,28 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.1052631578947368</v>
+        <v>0.1</v>
       </c>
       <c r="C88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="E88">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K88">
         <v>0.25181598062954</v>
@@ -7797,10 +7797,10 @@
         <v>0.1</v>
       </c>
       <c r="C89">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -7812,7 +7812,7 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>349</v>
@@ -7847,10 +7847,10 @@
         <v>0.1</v>
       </c>
       <c r="C90">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D90">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -7862,10 +7862,10 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K90">
         <v>0.25</v>
@@ -7950,16 +7950,16 @@
         <v>1</v>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F92">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92">
         <v>9</v>
@@ -8000,16 +8000,16 @@
         <v>1</v>
       </c>
       <c r="D93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E93">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93">
         <v>9</v>
@@ -8094,7 +8094,7 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -8112,7 +8112,7 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>354</v>
@@ -8300,16 +8300,16 @@
         <v>1</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F99">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99">
         <v>10</v>
@@ -8347,22 +8347,22 @@
         <v>0.09090909090909091</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D100">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="E100">
-        <v>0.83</v>
+        <v>0.93</v>
       </c>
       <c r="F100">
-        <v>0.17</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G100" t="b">
         <v>1</v>
       </c>
       <c r="H100">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>359</v>
@@ -8397,22 +8397,22 @@
         <v>0.09090909090909091</v>
       </c>
       <c r="C101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D101">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E101">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F101">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G101" t="b">
         <v>1</v>
       </c>
       <c r="H101">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>360</v>
@@ -8444,28 +8444,28 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.09090909090909091</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D102">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E102">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K102">
         <v>0.2333333333333333</v>
@@ -8494,13 +8494,13 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.08695652173913043</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -8512,7 +8512,7 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>361</v>
@@ -8550,16 +8550,16 @@
         <v>1</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F104">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H104">
         <v>11</v>
@@ -8597,22 +8597,22 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="C105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D105">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E105">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="F105">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="G105" t="b">
         <v>1</v>
       </c>
       <c r="H105">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>363</v>
@@ -8647,22 +8647,22 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="C106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D106">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E106">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="F106">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G106" t="b">
         <v>1</v>
       </c>
       <c r="H106">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>364</v>
@@ -8700,13 +8700,13 @@
         <v>1</v>
       </c>
       <c r="D107">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E107">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="F107">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="G107" t="b">
         <v>1</v>
@@ -8744,25 +8744,25 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.08333333333333333</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D108">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E108">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H108">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>366</v>
@@ -8794,25 +8794,25 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.08108108108108109</v>
+        <v>0.08</v>
       </c>
       <c r="C109">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D109">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F109">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H109">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>367</v>
@@ -8844,25 +8844,25 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.08</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C110">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D110">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E110">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F110">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H110">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>368</v>
@@ -8897,22 +8897,22 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="C111">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D111">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F111">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H111">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>369</v>
@@ -8950,16 +8950,16 @@
         <v>1</v>
       </c>
       <c r="D112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E112">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F112">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H112">
         <v>12</v>
@@ -9000,16 +9000,16 @@
         <v>1</v>
       </c>
       <c r="D113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F113">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H113">
         <v>12</v>
@@ -9047,22 +9047,22 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="C114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D114">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E114">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F114">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H114">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>372</v>
@@ -9097,10 +9097,10 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="C115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>81</v>
@@ -9194,25 +9194,25 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.07692307692307693</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
       <c r="D117">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F117">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H117">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>374</v>
@@ -9250,13 +9250,13 @@
         <v>1</v>
       </c>
       <c r="D118">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E118">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="F118">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G118" t="b">
         <v>1</v>
@@ -9300,13 +9300,13 @@
         <v>1</v>
       </c>
       <c r="D119">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E119">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F119">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G119" t="b">
         <v>1</v>
@@ -9315,7 +9315,7 @@
         <v>13</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K119">
         <v>0.2173913043478261</v>
@@ -9365,7 +9365,7 @@
         <v>13</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K120">
         <v>0.2142857142857143</v>
@@ -9400,13 +9400,13 @@
         <v>1</v>
       </c>
       <c r="D121">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E121">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="F121">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G121" t="b">
         <v>1</v>
@@ -9450,16 +9450,16 @@
         <v>1</v>
       </c>
       <c r="D122">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E122">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F122">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H122">
         <v>13</v>
@@ -9494,25 +9494,25 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.07142857142857142</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D123">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F123">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H123">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>378</v>
@@ -9544,25 +9544,25 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.06976744186046512</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="C124">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D124">
-        <v>120</v>
+        <v>6</v>
       </c>
       <c r="E124">
-        <v>0.97</v>
+        <v>0.67</v>
       </c>
       <c r="F124">
-        <v>0.03000000000000003</v>
+        <v>0.33</v>
       </c>
       <c r="G124" t="b">
         <v>1</v>
       </c>
       <c r="H124">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>379</v>
@@ -9594,25 +9594,25 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.06962025316455696</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C125">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D125">
-        <v>193</v>
+        <v>1</v>
       </c>
       <c r="E125">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F125">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H125">
-        <v>147</v>
+        <v>14</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>380</v>
@@ -9644,28 +9644,28 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.06896551724137931</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D126">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E126">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H126">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K126">
         <v>0.2112676056338028</v>
@@ -9700,16 +9700,16 @@
         <v>1</v>
       </c>
       <c r="D127">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F127">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H127">
         <v>14</v>
@@ -9765,7 +9765,7 @@
         <v>14</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K128">
         <v>0.2098765432098765</v>
@@ -9794,25 +9794,25 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.06666666666666667</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="C129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D129">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E129">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F129">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H129">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>382</v>
@@ -9844,7 +9844,7 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -9862,7 +9862,7 @@
         <v>0</v>
       </c>
       <c r="H130">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>383</v>
@@ -9894,13 +9894,13 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.06451612903225806</v>
+        <v>0.0625</v>
       </c>
       <c r="C131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -9912,10 +9912,10 @@
         <v>0</v>
       </c>
       <c r="H131">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K131">
         <v>0.2038216560509554</v>
@@ -9965,7 +9965,7 @@
         <v>15</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K132">
         <v>0.2033898305084746</v>
@@ -10000,16 +10000,16 @@
         <v>1</v>
       </c>
       <c r="D133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F133">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H133">
         <v>15</v>
@@ -10100,16 +10100,16 @@
         <v>1</v>
       </c>
       <c r="D135">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E135">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H135">
         <v>15</v>
@@ -10147,10 +10147,10 @@
         <v>0.0625</v>
       </c>
       <c r="C136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -10162,7 +10162,7 @@
         <v>0</v>
       </c>
       <c r="H136">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>387</v>
@@ -10194,25 +10194,25 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.0625</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="C137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D137">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F137">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H137">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>388</v>
@@ -10244,13 +10244,13 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -10262,7 +10262,7 @@
         <v>0</v>
       </c>
       <c r="H138">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>389</v>
@@ -10294,25 +10294,25 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.06060606060606061</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D139">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="E139">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F139">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H139">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>390</v>
@@ -10344,25 +10344,25 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.05882352941176471</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="C140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D140">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="F140">
-        <v>1</v>
+        <v>0.22</v>
       </c>
       <c r="G140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H140">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>391</v>
@@ -10394,13 +10394,13 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -10412,7 +10412,7 @@
         <v>0</v>
       </c>
       <c r="H141">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>392</v>
@@ -10444,25 +10444,25 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.05714285714285714</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D142">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E142">
-        <v>0.78</v>
+        <v>0.5</v>
       </c>
       <c r="F142">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="G142" t="b">
         <v>1</v>
       </c>
       <c r="H142">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>393</v>
@@ -10497,10 +10497,10 @@
         <v>0.05555555555555555</v>
       </c>
       <c r="C143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E143">
         <v>0</v>
@@ -10512,7 +10512,7 @@
         <v>0</v>
       </c>
       <c r="H143">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>394</v>
@@ -10600,16 +10600,16 @@
         <v>1</v>
       </c>
       <c r="D145">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F145">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H145">
         <v>17</v>
@@ -10644,25 +10644,25 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C146">
         <v>1</v>
       </c>
       <c r="D146">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E146">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F146">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G146" t="b">
         <v>1</v>
       </c>
       <c r="H146">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>397</v>
@@ -10694,25 +10694,25 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C147">
         <v>1</v>
       </c>
       <c r="D147">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E147">
-        <v>0.95</v>
+        <v>0.83</v>
       </c>
       <c r="F147">
-        <v>0.05000000000000004</v>
+        <v>0.17</v>
       </c>
       <c r="G147" t="b">
         <v>1</v>
       </c>
       <c r="H147">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>398</v>
@@ -10750,16 +10750,16 @@
         <v>1</v>
       </c>
       <c r="D148">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E148">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F148">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H148">
         <v>18</v>
@@ -10794,25 +10794,25 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.05263157894736842</v>
+        <v>0.05194805194805195</v>
       </c>
       <c r="C149">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D149">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E149">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H149">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>400</v>
@@ -10844,25 +10844,25 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.05263157894736842</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="C150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D150">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F150">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H150">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>401</v>
@@ -10894,25 +10894,25 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.05194805194805195</v>
+        <v>0.05</v>
       </c>
       <c r="C151">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D151">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F151">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H151">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>402</v>
@@ -10944,25 +10944,25 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.05128205128205128</v>
+        <v>0.05</v>
       </c>
       <c r="C152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D152">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="E152">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F152">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H152">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>403</v>
@@ -11000,13 +11000,13 @@
         <v>1</v>
       </c>
       <c r="D153">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E153">
-        <v>0.67</v>
+        <v>0.89</v>
       </c>
       <c r="F153">
-        <v>0.33</v>
+        <v>0.11</v>
       </c>
       <c r="G153" t="b">
         <v>1</v>
@@ -11065,7 +11065,7 @@
         <v>19</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K154">
         <v>0.1818181818181818</v>
@@ -11094,25 +11094,25 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.05</v>
+        <v>0.04938271604938271</v>
       </c>
       <c r="C155">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D155">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E155">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="F155">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>405</v>
@@ -11144,28 +11144,28 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C156">
         <v>1</v>
       </c>
       <c r="D156">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="F156">
-        <v>1</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H156">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K156">
         <v>0.1818181818181818</v>
@@ -11194,25 +11194,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.04938271604938271</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C157">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D157">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E157">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F157">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G157" t="b">
         <v>1</v>
       </c>
       <c r="H157">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>406</v>
@@ -11244,25 +11244,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.04761904761904762</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C158">
         <v>1</v>
       </c>
       <c r="D158">
-        <v>92</v>
+        <v>2</v>
       </c>
       <c r="E158">
-        <v>0.99</v>
+        <v>0.5</v>
       </c>
       <c r="F158">
-        <v>0.01000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>407</v>
@@ -11294,7 +11294,7 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C159">
         <v>1</v>
@@ -11312,7 +11312,7 @@
         <v>1</v>
       </c>
       <c r="H159">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>408</v>
@@ -11400,16 +11400,16 @@
         <v>1</v>
       </c>
       <c r="D161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E161">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F161">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H161">
         <v>22</v>
@@ -11450,13 +11450,13 @@
         <v>1</v>
       </c>
       <c r="D162">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E162">
-        <v>0.5</v>
+        <v>0.89</v>
       </c>
       <c r="F162">
-        <v>0.5</v>
+        <v>0.11</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
@@ -11550,16 +11550,16 @@
         <v>1</v>
       </c>
       <c r="D164">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E164">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F164">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H164">
         <v>22</v>
@@ -11594,25 +11594,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.04347826086956522</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="C165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D165">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F165">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="G165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H165">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>414</v>
@@ -11644,28 +11644,28 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
       <c r="D166">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F166">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H166">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K166">
         <v>0.175</v>
@@ -11694,25 +11694,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.0425531914893617</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D167">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="E167">
-        <v>0.6</v>
+        <v>0.99</v>
       </c>
       <c r="F167">
-        <v>0.4</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G167" t="b">
         <v>1</v>
       </c>
       <c r="H167">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>415</v>
@@ -11750,16 +11750,16 @@
         <v>1</v>
       </c>
       <c r="D168">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E168">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F168">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H168">
         <v>23</v>
@@ -11794,28 +11794,28 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C169">
         <v>1</v>
       </c>
       <c r="D169">
-        <v>105</v>
+        <v>2</v>
       </c>
       <c r="E169">
-        <v>0.99</v>
+        <v>0.5</v>
       </c>
       <c r="F169">
-        <v>0.01000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
       </c>
       <c r="H169">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K169">
         <v>0.1720430107526882</v>
@@ -11844,7 +11844,7 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C170">
         <v>1</v>
@@ -11862,10 +11862,10 @@
         <v>0</v>
       </c>
       <c r="H170">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J170" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K170">
         <v>0.1707317073170732</v>
@@ -11944,7 +11944,7 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.04</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C172">
         <v>1</v>
@@ -11962,10 +11962,10 @@
         <v>0</v>
       </c>
       <c r="H172">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K172">
         <v>0.1666666666666667</v>
@@ -11994,7 +11994,7 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.04</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C173">
         <v>1</v>
@@ -12012,7 +12012,7 @@
         <v>1</v>
       </c>
       <c r="H173">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>418</v>
@@ -12094,25 +12094,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.03846153846153846</v>
+        <v>0.0375</v>
       </c>
       <c r="C175">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D175">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E175">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F175">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H175">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>420</v>
@@ -12144,7 +12144,7 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C176">
         <v>1</v>
@@ -12162,7 +12162,7 @@
         <v>0</v>
       </c>
       <c r="H176">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>421</v>
@@ -12194,13 +12194,13 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.0375</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C177">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D177">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E177">
         <v>0</v>
@@ -12212,7 +12212,7 @@
         <v>0</v>
       </c>
       <c r="H177">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>422</v>
@@ -12250,16 +12250,16 @@
         <v>1</v>
       </c>
       <c r="D178">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F178">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H178">
         <v>26</v>
@@ -12300,16 +12300,16 @@
         <v>1</v>
       </c>
       <c r="D179">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F179">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H179">
         <v>26</v>
@@ -12350,16 +12350,16 @@
         <v>1</v>
       </c>
       <c r="D180">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E180">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F180">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H180">
         <v>26</v>
@@ -12394,25 +12394,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.03703703703703703</v>
+        <v>0.03636363636363636</v>
       </c>
       <c r="C181">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D181">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E181">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F181">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H181">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>426</v>
@@ -12444,13 +12444,13 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.03703703703703703</v>
+        <v>0.03636363636363636</v>
       </c>
       <c r="C182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E182">
         <v>0</v>
@@ -12462,7 +12462,7 @@
         <v>0</v>
       </c>
       <c r="H182">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>427</v>
@@ -12494,13 +12494,13 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.03636363636363636</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E183">
         <v>0</v>
@@ -12512,7 +12512,7 @@
         <v>0</v>
       </c>
       <c r="H183">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>428</v>
@@ -12544,25 +12544,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.03636363636363636</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D184">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F184">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H184">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>429</v>
@@ -12594,7 +12594,7 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.03571428571428571</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C185">
         <v>1</v>
@@ -12612,7 +12612,7 @@
         <v>0</v>
       </c>
       <c r="H185">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>430</v>
@@ -12644,25 +12644,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.03571428571428571</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C186">
         <v>1</v>
       </c>
       <c r="D186">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E186">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F186">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H186">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>431</v>
@@ -12694,13 +12694,13 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.03448275862068965</v>
+        <v>0.03355704697986577</v>
       </c>
       <c r="C187">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D187">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E187">
         <v>0</v>
@@ -12712,7 +12712,7 @@
         <v>0</v>
       </c>
       <c r="H187">
-        <v>28</v>
+        <v>144</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>432</v>
@@ -12744,7 +12744,7 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.03448275862068965</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C188">
         <v>1</v>
@@ -12762,7 +12762,7 @@
         <v>0</v>
       </c>
       <c r="H188">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>433</v>
@@ -12794,25 +12794,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.03355704697986577</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C189">
         <v>5</v>
       </c>
       <c r="D189">
-        <v>5</v>
+        <v>145</v>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F189">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H189">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>434</v>
@@ -12850,16 +12850,16 @@
         <v>1</v>
       </c>
       <c r="D190">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F190">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H190">
         <v>30</v>
@@ -12894,25 +12894,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.03225806451612903</v>
+        <v>0.03061224489795918</v>
       </c>
       <c r="C191">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D191">
-        <v>145</v>
+        <v>6</v>
       </c>
       <c r="E191">
-        <v>0.97</v>
+        <v>0.5</v>
       </c>
       <c r="F191">
-        <v>0.03000000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>436</v>
@@ -12944,25 +12944,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.03225806451612903</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
       <c r="D192">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E192">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F192">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>437</v>
@@ -12994,13 +12994,13 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.03061224489795918</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C193">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D193">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E193">
         <v>0.5</v>
@@ -13012,7 +13012,7 @@
         <v>1</v>
       </c>
       <c r="H193">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>438</v>
@@ -13044,25 +13044,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.0303030303030303</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E194">
-        <v>0.97</v>
+        <v>0.88</v>
       </c>
       <c r="F194">
-        <v>0.03000000000000003</v>
+        <v>0.12</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>439</v>
@@ -13100,16 +13100,16 @@
         <v>1</v>
       </c>
       <c r="D195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E195">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F195">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H195">
         <v>34</v>
@@ -13144,25 +13144,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.02857142857142857</v>
+        <v>0.0273972602739726</v>
       </c>
       <c r="C196">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D196">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E196">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="F196">
-        <v>0.12</v>
+        <v>0.22</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>441</v>
@@ -13194,25 +13194,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.02857142857142857</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
       <c r="D197">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F197">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H197">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>442</v>
@@ -13244,25 +13244,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.0273972602739726</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D198">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E198">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="F198">
-        <v>0.22</v>
+        <v>1</v>
       </c>
       <c r="G198" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H198">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>443</v>
@@ -13294,25 +13294,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.02702702702702703</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
       <c r="D199">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E199">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F199">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H199">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>444</v>
@@ -13344,25 +13344,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.02702702702702703</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
       <c r="D200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E200">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F200">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H200">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>445</v>
@@ -13394,7 +13394,7 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.02564102564102564</v>
+        <v>0.025</v>
       </c>
       <c r="C201">
         <v>1</v>
@@ -13412,7 +13412,7 @@
         <v>0</v>
       </c>
       <c r="H201">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>446</v>
@@ -13444,7 +13444,7 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.02564102564102564</v>
+        <v>0.025</v>
       </c>
       <c r="C202">
         <v>1</v>
@@ -13462,7 +13462,7 @@
         <v>1</v>
       </c>
       <c r="H202">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>447</v>
@@ -13494,25 +13494,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.025</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E203">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F203">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H203">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>448</v>
@@ -13544,28 +13544,28 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.025</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E204">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F204">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J204" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K204">
         <v>0.1555555555555556</v>
@@ -13594,28 +13594,28 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.02439024390243903</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
       <c r="D205">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E205">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="F205">
-        <v>0.2</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J205" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K205">
         <v>0.1538461538461539</v>
@@ -13644,7 +13644,7 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.02439024390243903</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="C206">
         <v>1</v>
@@ -13662,10 +13662,10 @@
         <v>1</v>
       </c>
       <c r="H206">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J206" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K206">
         <v>0.1538461538461539</v>
@@ -13694,25 +13694,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.02325581395348837</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E207">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F207">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G207" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H207">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>449</v>
@@ -13744,25 +13744,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.02272727272727273</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C208">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D208">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E208">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F208">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>450</v>
@@ -13794,25 +13794,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.02222222222222222</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C209">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D209">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E209">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="F209">
-        <v>1</v>
+        <v>0.22</v>
       </c>
       <c r="G209" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H209">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>451</v>
@@ -13844,25 +13844,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.02222222222222222</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C210">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D210">
         <v>8</v>
       </c>
       <c r="E210">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="F210">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>452</v>
@@ -13894,25 +13894,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.02173913043478261</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="C211">
         <v>2</v>
       </c>
       <c r="D211">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E211">
-        <v>0.78</v>
+        <v>0.5</v>
       </c>
       <c r="F211">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>453</v>
@@ -13944,25 +13944,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.02173913043478261</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C212">
         <v>1</v>
       </c>
       <c r="D212">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E212">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="F212">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>454</v>
@@ -13994,25 +13994,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.02150537634408602</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C213">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D213">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E213">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F213">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>455</v>
@@ -14044,28 +14044,28 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.02127659574468085</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D214">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E214">
-        <v>0.75</v>
+        <v>0.87</v>
       </c>
       <c r="F214">
-        <v>0.25</v>
+        <v>0.13</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="J214" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K214">
         <v>0.1525423728813559</v>
@@ -14094,28 +14094,28 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.02127659574468085</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C215">
         <v>1</v>
       </c>
       <c r="D215">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E215">
-        <v>0.8</v>
+        <v>0.92</v>
       </c>
       <c r="F215">
-        <v>0.2</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J215" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K215">
         <v>0.1515151515151515</v>
@@ -14147,25 +14147,25 @@
         <v>0.02083333333333333</v>
       </c>
       <c r="C216">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D216">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="E216">
-        <v>0.87</v>
+        <v>0.99</v>
       </c>
       <c r="F216">
-        <v>0.13</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="J216" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K216">
         <v>0.1512415349887133</v>
@@ -14194,25 +14194,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.02083333333333333</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
       <c r="D217">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E217">
-        <v>0.92</v>
+        <v>0.75</v>
       </c>
       <c r="F217">
-        <v>0.07999999999999996</v>
+        <v>0.25</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>456</v>
@@ -14244,25 +14244,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.02083333333333333</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="E218">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="F218">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>457</v>
@@ -14294,28 +14294,28 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.0196078431372549</v>
+        <v>0.01904761904761905</v>
       </c>
       <c r="C219">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D219">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E219">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="F219">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="J219" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K219">
         <v>0.1481481481481481</v>
@@ -14344,25 +14344,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.01923076923076923</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
       <c r="D220">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="E220">
-        <v>0.97</v>
+        <v>0.83</v>
       </c>
       <c r="F220">
-        <v>0.03000000000000003</v>
+        <v>0.17</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>458</v>
@@ -14394,25 +14394,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.01904761904761905</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C221">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D221">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E221">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="F221">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>459</v>
@@ -14444,25 +14444,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.01886792452830189</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E222">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="F222">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>460</v>
@@ -14494,25 +14494,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.01851851851851852</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
       <c r="D223">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E223">
-        <v>0.67</v>
+        <v>0.89</v>
       </c>
       <c r="F223">
-        <v>0.33</v>
+        <v>0.11</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>461</v>
@@ -14544,25 +14544,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.01818181818181818</v>
+        <v>0.01807228915662651</v>
       </c>
       <c r="C224">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D224">
         <v>3</v>
       </c>
       <c r="E224">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F224">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G224" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H224">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>462</v>
@@ -14594,25 +14594,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.01818181818181818</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E225">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="F225">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>463</v>
@@ -14644,28 +14644,28 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.01807228915662651</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C226">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D226">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F226">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G226" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H226">
-        <v>163</v>
+        <v>55</v>
       </c>
       <c r="J226" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K226">
         <v>0.1428571428571428</v>
@@ -14694,25 +14694,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.01785714285714286</v>
+        <v>0.01769911504424779</v>
       </c>
       <c r="C227">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D227">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E227">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="F227">
-        <v>0.12</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>464</v>
@@ -14744,25 +14744,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.01785714285714286</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="C228">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D228">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E228">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
       <c r="F228">
-        <v>0.14</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>465</v>
@@ -14794,25 +14794,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.01769911504424779</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="C229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D229">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E229">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F229">
-        <v>0.09999999999999998</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>466</v>
@@ -14844,13 +14844,13 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.01754385964912281</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C230">
         <v>2</v>
       </c>
       <c r="D230">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E230">
         <v>0.91</v>
@@ -14862,7 +14862,7 @@
         <v>1</v>
       </c>
       <c r="H230">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>467</v>
@@ -14894,25 +14894,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.01754385964912281</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C231">
         <v>1</v>
       </c>
       <c r="D231">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E231">
-        <v>0.9399999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="F231">
-        <v>0.06000000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>468</v>
@@ -14950,13 +14950,13 @@
         <v>2</v>
       </c>
       <c r="D232">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E232">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="F232">
-        <v>0.08999999999999997</v>
+        <v>0.11</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
@@ -14994,25 +14994,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.01724137931034483</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="C233">
         <v>1</v>
       </c>
       <c r="D233">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E233">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F233">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G233" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H233">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>470</v>
@@ -15044,25 +15044,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.01724137931034483</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="C234">
         <v>2</v>
       </c>
       <c r="D234">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E234">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="F234">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>471</v>
@@ -15094,25 +15094,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.01694915254237288</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="C235">
         <v>1</v>
       </c>
       <c r="D235">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E235">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F235">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G235" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H235">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>472</v>
@@ -15144,25 +15144,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.01694915254237288</v>
+        <v>0.01592356687898089</v>
       </c>
       <c r="C236">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D236">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="E236">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="F236">
-        <v>0.15</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>116</v>
+        <v>309</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>473</v>
@@ -15194,25 +15194,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.01666666666666667</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="C237">
         <v>1</v>
       </c>
       <c r="D237">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E237">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="F237">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>474</v>
@@ -15244,25 +15244,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.01592356687898089</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="C238">
+        <v>1</v>
+      </c>
+      <c r="D238">
         <v>5</v>
       </c>
-      <c r="D238">
-        <v>109</v>
-      </c>
       <c r="E238">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="F238">
-        <v>0.05000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>309</v>
+        <v>62</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>475</v>
@@ -15300,13 +15300,13 @@
         <v>1</v>
       </c>
       <c r="D239">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E239">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="F239">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
@@ -15315,7 +15315,7 @@
         <v>62</v>
       </c>
       <c r="J239" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K239">
         <v>0.1428571428571428</v>
@@ -15344,25 +15344,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.01587301587301587</v>
+        <v>0.01574803149606299</v>
       </c>
       <c r="C240">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D240">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="E240">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F240">
-        <v>0.2</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>476</v>
@@ -15394,25 +15394,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.01587301587301587</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="C241">
         <v>1</v>
       </c>
       <c r="D241">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E241">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="F241">
-        <v>0.12</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G241" t="b">
         <v>1</v>
       </c>
       <c r="H241">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>477</v>
@@ -15444,25 +15444,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.01574803149606299</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="C242">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D242">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E242">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="F242">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>478</v>
@@ -15494,25 +15494,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.01492537313432836</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="C243">
         <v>1</v>
       </c>
       <c r="D243">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="E243">
-        <v>0.97</v>
+        <v>0.5</v>
       </c>
       <c r="F243">
-        <v>0.03000000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="G243" t="b">
         <v>1</v>
       </c>
       <c r="H243">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>479</v>
@@ -15544,25 +15544,25 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.01492537313432836</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="C244">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D244">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="E244">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="F244">
-        <v>0.07999999999999996</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G244" t="b">
         <v>1</v>
       </c>
       <c r="H244">
-        <v>66</v>
+        <v>150</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>480</v>
@@ -15594,25 +15594,25 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.01333333333333333</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="C245">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D245">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="E245">
-        <v>0.5</v>
+        <v>0.91</v>
       </c>
       <c r="F245">
-        <v>0.5</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G245" t="b">
         <v>1</v>
       </c>
       <c r="H245">
-        <v>74</v>
+        <v>304</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>481</v>
@@ -15644,25 +15644,25 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.0131578947368421</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="C246">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D246">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="E246">
-        <v>0.97</v>
+        <v>0.75</v>
       </c>
       <c r="F246">
-        <v>0.03000000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="G246" t="b">
         <v>1</v>
       </c>
       <c r="H246">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>482</v>
@@ -15694,25 +15694,25 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.01298701298701299</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="C247">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D247">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="E247">
-        <v>0.91</v>
+        <v>0.8</v>
       </c>
       <c r="F247">
-        <v>0.08999999999999997</v>
+        <v>0.2</v>
       </c>
       <c r="G247" t="b">
         <v>1</v>
       </c>
       <c r="H247">
-        <v>304</v>
+        <v>81</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>483</v>
@@ -15744,25 +15744,25 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.01265822784810127</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="C248">
         <v>1</v>
       </c>
       <c r="D248">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E248">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="F248">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="G248" t="b">
         <v>1</v>
       </c>
       <c r="H248">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>484</v>
@@ -15794,25 +15794,25 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.01219512195121951</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="C249">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D249">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E249">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="F249">
-        <v>0.2</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G249" t="b">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>81</v>
+        <v>164</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>485</v>
@@ -15844,25 +15844,25 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.01219512195121951</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="C250">
         <v>1</v>
       </c>
       <c r="D250">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E250">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
       <c r="F250">
-        <v>0.12</v>
+        <v>0.33</v>
       </c>
       <c r="G250" t="b">
         <v>1</v>
       </c>
       <c r="H250">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>486</v>
@@ -15894,25 +15894,25 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.01204819277108434</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="C251">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D251">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E251">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="F251">
-        <v>0.09999999999999998</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G251" t="b">
         <v>1</v>
       </c>
       <c r="H251">
-        <v>164</v>
+        <v>87</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>487</v>
@@ -15944,25 +15944,25 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.01204819277108434</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="C252">
         <v>1</v>
       </c>
       <c r="D252">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E252">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="F252">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="G252" t="b">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>488</v>
@@ -15994,25 +15994,25 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.01136363636363636</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="C253">
         <v>1</v>
       </c>
       <c r="D253">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E253">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F253">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G253" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H253">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>489</v>
@@ -16044,25 +16044,25 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.01136363636363636</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="C254">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D254">
-        <v>5</v>
+        <v>142</v>
       </c>
       <c r="E254">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F254">
-        <v>0.2</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G254" t="b">
         <v>1</v>
       </c>
       <c r="H254">
-        <v>87</v>
+        <v>752</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>490</v>
@@ -16094,25 +16094,25 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.01111111111111111</v>
+        <v>0.01051524710830705</v>
       </c>
       <c r="C255">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D255">
-        <v>1</v>
+        <v>261</v>
       </c>
       <c r="E255">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F255">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G255" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H255">
-        <v>89</v>
+        <v>1882</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>491</v>
@@ -16144,25 +16144,25 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.01052631578947368</v>
+        <v>0.01016949152542373</v>
       </c>
       <c r="C256">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D256">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="E256">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="F256">
-        <v>0.06000000000000005</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G256" t="b">
         <v>1</v>
       </c>
       <c r="H256">
-        <v>752</v>
+        <v>292</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>492</v>
@@ -16194,28 +16194,28 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.01051524710830705</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="C257">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D257">
-        <v>261</v>
+        <v>14</v>
       </c>
       <c r="E257">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="F257">
-        <v>0.07999999999999996</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G257" t="b">
         <v>1</v>
       </c>
       <c r="H257">
-        <v>1882</v>
+        <v>98</v>
       </c>
       <c r="J257" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K257">
         <v>0.1395348837209302</v>
@@ -16244,25 +16244,25 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.01016949152542373</v>
+        <v>0.01</v>
       </c>
       <c r="C258">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D258">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E258">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F258">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G258" t="b">
         <v>1</v>
       </c>
       <c r="H258">
-        <v>292</v>
+        <v>99</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>493</v>
@@ -16294,25 +16294,25 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.0101010101010101</v>
+        <v>0.009900990099009901</v>
       </c>
       <c r="C259">
         <v>1</v>
       </c>
       <c r="D259">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E259">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="F259">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G259" t="b">
         <v>1</v>
       </c>
       <c r="H259">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>494</v>
@@ -16344,25 +16344,25 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>0.01</v>
+        <v>0.009803921568627451</v>
       </c>
       <c r="C260">
         <v>1</v>
       </c>
       <c r="D260">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E260">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="F260">
-        <v>0.09999999999999998</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G260" t="b">
         <v>1</v>
       </c>
       <c r="H260">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>495</v>
@@ -16394,28 +16394,28 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>0.009900990099009901</v>
+        <v>0.0096051227321238</v>
       </c>
       <c r="C261">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D261">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="E261">
-        <v>0.95</v>
+        <v>0.78</v>
       </c>
       <c r="F261">
-        <v>0.05000000000000004</v>
+        <v>0.22</v>
       </c>
       <c r="G261" t="b">
         <v>1</v>
       </c>
       <c r="H261">
-        <v>100</v>
+        <v>928</v>
       </c>
       <c r="J261" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K261">
         <v>0.1360824742268041</v>
@@ -16444,28 +16444,28 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>0.009803921568627451</v>
+        <v>0.009523809523809525</v>
       </c>
       <c r="C262">
         <v>1</v>
       </c>
       <c r="D262">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E262">
-        <v>0.91</v>
+        <v>0.5</v>
       </c>
       <c r="F262">
-        <v>0.08999999999999997</v>
+        <v>0.5</v>
       </c>
       <c r="G262" t="b">
         <v>1</v>
       </c>
       <c r="H262">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J262" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K262">
         <v>0.1346153846153846</v>
@@ -16494,28 +16494,28 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>0.0096051227321238</v>
+        <v>0.008849557522123894</v>
       </c>
       <c r="C263">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D263">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="E263">
-        <v>0.78</v>
+        <v>0.67</v>
       </c>
       <c r="F263">
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
       <c r="G263" t="b">
         <v>1</v>
       </c>
       <c r="H263">
-        <v>928</v>
+        <v>112</v>
       </c>
       <c r="J263" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K263">
         <v>0.1333333333333333</v>
@@ -16544,25 +16544,25 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>0.009523809523809525</v>
+        <v>0.008771929824561403</v>
       </c>
       <c r="C264">
         <v>1</v>
       </c>
       <c r="D264">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E264">
-        <v>0.5</v>
+        <v>0.93</v>
       </c>
       <c r="F264">
-        <v>0.5</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G264" t="b">
         <v>1</v>
       </c>
       <c r="H264">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>496</v>
@@ -16594,25 +16594,25 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>0.008849557522123894</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="C265">
         <v>1</v>
       </c>
       <c r="D265">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="E265">
-        <v>0.67</v>
+        <v>0.98</v>
       </c>
       <c r="F265">
-        <v>0.33</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G265" t="b">
         <v>1</v>
       </c>
       <c r="H265">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>497</v>
@@ -16644,13 +16644,13 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>0.008771929824561403</v>
+        <v>0.008064516129032258</v>
       </c>
       <c r="C266">
         <v>1</v>
       </c>
       <c r="D266">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E266">
         <v>0.93</v>
@@ -16662,7 +16662,7 @@
         <v>1</v>
       </c>
       <c r="H266">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>498</v>
@@ -16694,25 +16694,25 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>0.008547008547008548</v>
+        <v>0.007874015748031496</v>
       </c>
       <c r="C267">
         <v>1</v>
       </c>
       <c r="D267">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="E267">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F267">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G267" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H267">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>499</v>
@@ -16744,25 +16744,25 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>0.008064516129032258</v>
+        <v>0.007751937984496124</v>
       </c>
       <c r="C268">
         <v>1</v>
       </c>
       <c r="D268">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E268">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F268">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G268" t="b">
         <v>1</v>
       </c>
       <c r="H268">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>500</v>
@@ -16794,25 +16794,25 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>0.007874015748031496</v>
+        <v>0.007712082262210797</v>
       </c>
       <c r="C269">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D269">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="E269">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F269">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G269" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H269">
-        <v>126</v>
+        <v>772</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>501</v>
@@ -16844,28 +16844,28 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>0.007751937984496124</v>
+        <v>0.00686106346483705</v>
       </c>
       <c r="C270">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D270">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="E270">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F270">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G270" t="b">
         <v>1</v>
       </c>
       <c r="H270">
-        <v>128</v>
+        <v>579</v>
       </c>
       <c r="J270" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K270">
         <v>0.13</v>
@@ -16894,28 +16894,28 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>0.007712082262210797</v>
+        <v>0.006329113924050633</v>
       </c>
       <c r="C271">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D271">
-        <v>95</v>
+        <v>7</v>
       </c>
       <c r="E271">
-        <v>0.9399999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="F271">
-        <v>0.06000000000000005</v>
+        <v>0.14</v>
       </c>
       <c r="G271" t="b">
         <v>1</v>
       </c>
       <c r="H271">
-        <v>772</v>
+        <v>157</v>
       </c>
       <c r="J271" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K271">
         <v>0.1297709923664122</v>
@@ -16944,28 +16944,28 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>0.00686106346483705</v>
+        <v>0.005763688760806916</v>
       </c>
       <c r="C272">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D272">
         <v>71</v>
       </c>
       <c r="E272">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F272">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G272" t="b">
         <v>1</v>
       </c>
       <c r="H272">
-        <v>579</v>
+        <v>345</v>
       </c>
       <c r="J272" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K272">
         <v>0.1290322580645161</v>
@@ -16994,28 +16994,28 @@
         <v>278</v>
       </c>
       <c r="B273">
-        <v>0.006329113924050633</v>
+        <v>0.005681818181818182</v>
       </c>
       <c r="C273">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D273">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E273">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="F273">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="G273" t="b">
         <v>1</v>
       </c>
       <c r="H273">
-        <v>157</v>
+        <v>525</v>
       </c>
       <c r="J273" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K273">
         <v>0.1290322580645161</v>
@@ -17044,25 +17044,25 @@
         <v>279</v>
       </c>
       <c r="B274">
-        <v>0.005763688760806916</v>
+        <v>0.005504587155963303</v>
       </c>
       <c r="C274">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D274">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E274">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="F274">
-        <v>0.03000000000000003</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G274" t="b">
         <v>1</v>
       </c>
       <c r="H274">
-        <v>345</v>
+        <v>1084</v>
       </c>
       <c r="J274" s="1" t="s">
         <v>502</v>
@@ -17094,25 +17094,25 @@
         <v>280</v>
       </c>
       <c r="B275">
-        <v>0.005681818181818182</v>
+        <v>0.005361930294906166</v>
       </c>
       <c r="C275">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D275">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E275">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="F275">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="G275" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H275">
-        <v>525</v>
+        <v>371</v>
       </c>
       <c r="J275" s="1" t="s">
         <v>503</v>
@@ -17144,28 +17144,28 @@
         <v>281</v>
       </c>
       <c r="B276">
-        <v>0.005504587155963303</v>
+        <v>0.005319148936170213</v>
       </c>
       <c r="C276">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D276">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="E276">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="F276">
-        <v>0.07999999999999996</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G276" t="b">
         <v>1</v>
       </c>
       <c r="H276">
-        <v>1084</v>
+        <v>187</v>
       </c>
       <c r="J276" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K276">
         <v>0.1282051282051282</v>
@@ -17194,25 +17194,25 @@
         <v>282</v>
       </c>
       <c r="B277">
-        <v>0.005361930294906166</v>
+        <v>0.005089058524173028</v>
       </c>
       <c r="C277">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D277">
-        <v>2</v>
+        <v>119</v>
       </c>
       <c r="E277">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F277">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G277" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H277">
-        <v>371</v>
+        <v>782</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>504</v>
@@ -17244,13 +17244,13 @@
         <v>283</v>
       </c>
       <c r="B278">
-        <v>0.005319148936170213</v>
+        <v>0.004739336492890996</v>
       </c>
       <c r="C278">
         <v>1</v>
       </c>
       <c r="D278">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E278">
         <v>0.96</v>
@@ -17262,10 +17262,10 @@
         <v>1</v>
       </c>
       <c r="H278">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="J278" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K278">
         <v>0.1261682242990654</v>
@@ -17294,25 +17294,25 @@
         <v>284</v>
       </c>
       <c r="B279">
-        <v>0.005089058524173028</v>
+        <v>0.004727272727272728</v>
       </c>
       <c r="C279">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D279">
-        <v>119</v>
+        <v>370</v>
       </c>
       <c r="E279">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F279">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G279" t="b">
         <v>1</v>
       </c>
       <c r="H279">
-        <v>782</v>
+        <v>2737</v>
       </c>
       <c r="J279" s="1" t="s">
         <v>505</v>
@@ -17344,25 +17344,25 @@
         <v>285</v>
       </c>
       <c r="B280">
-        <v>0.004739336492890996</v>
+        <v>0.004694835680751174</v>
       </c>
       <c r="C280">
         <v>1</v>
       </c>
       <c r="D280">
-        <v>27</v>
+        <v>171</v>
       </c>
       <c r="E280">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="F280">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G280" t="b">
         <v>1</v>
       </c>
       <c r="H280">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="J280" s="1" t="s">
         <v>506</v>
@@ -17394,25 +17394,25 @@
         <v>286</v>
       </c>
       <c r="B281">
-        <v>0.004727272727272728</v>
+        <v>0.004672897196261682</v>
       </c>
       <c r="C281">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D281">
-        <v>370</v>
+        <v>12</v>
       </c>
       <c r="E281">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="F281">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G281" t="b">
         <v>1</v>
       </c>
       <c r="H281">
-        <v>2737</v>
+        <v>213</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>507</v>
@@ -17444,25 +17444,25 @@
         <v>287</v>
       </c>
       <c r="B282">
-        <v>0.004694835680751174</v>
+        <v>0.004291845493562232</v>
       </c>
       <c r="C282">
         <v>1</v>
       </c>
       <c r="D282">
-        <v>171</v>
+        <v>4</v>
       </c>
       <c r="E282">
-        <v>0.99</v>
+        <v>0.75</v>
       </c>
       <c r="F282">
-        <v>0.01000000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="G282" t="b">
         <v>1</v>
       </c>
       <c r="H282">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="J282" s="1" t="s">
         <v>508</v>
@@ -17494,25 +17494,25 @@
         <v>288</v>
       </c>
       <c r="B283">
-        <v>0.004672897196261682</v>
+        <v>0.003968253968253968</v>
       </c>
       <c r="C283">
         <v>1</v>
       </c>
       <c r="D283">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E283">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F283">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G283" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H283">
-        <v>213</v>
+        <v>251</v>
       </c>
       <c r="J283" s="1" t="s">
         <v>509</v>
@@ -17544,25 +17544,25 @@
         <v>289</v>
       </c>
       <c r="B284">
-        <v>0.004291845493562232</v>
+        <v>0.00390625</v>
       </c>
       <c r="C284">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D284">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="E284">
-        <v>0.75</v>
+        <v>0.96</v>
       </c>
       <c r="F284">
-        <v>0.25</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G284" t="b">
         <v>1</v>
       </c>
       <c r="H284">
-        <v>232</v>
+        <v>510</v>
       </c>
       <c r="J284" s="1" t="s">
         <v>510</v>
@@ -17594,25 +17594,25 @@
         <v>290</v>
       </c>
       <c r="B285">
-        <v>0.003968253968253968</v>
+        <v>0.003448275862068965</v>
       </c>
       <c r="C285">
         <v>1</v>
       </c>
       <c r="D285">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E285">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F285">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G285" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H285">
-        <v>251</v>
+        <v>289</v>
       </c>
       <c r="J285" s="1" t="s">
         <v>511</v>
@@ -17644,25 +17644,25 @@
         <v>291</v>
       </c>
       <c r="B286">
-        <v>0.00390625</v>
+        <v>0.003401360544217687</v>
       </c>
       <c r="C286">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D286">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="E286">
-        <v>0.96</v>
+        <v>0.86</v>
       </c>
       <c r="F286">
-        <v>0.04000000000000004</v>
+        <v>0.14</v>
       </c>
       <c r="G286" t="b">
         <v>1</v>
       </c>
       <c r="H286">
-        <v>510</v>
+        <v>293</v>
       </c>
       <c r="J286" s="1" t="s">
         <v>512</v>
@@ -17694,25 +17694,25 @@
         <v>292</v>
       </c>
       <c r="B287">
-        <v>0.003448275862068965</v>
+        <v>0.003389830508474576</v>
       </c>
       <c r="C287">
         <v>1</v>
       </c>
       <c r="D287">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E287">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="F287">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="G287" t="b">
         <v>1</v>
       </c>
       <c r="H287">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="J287" s="1" t="s">
         <v>513</v>
@@ -17744,25 +17744,25 @@
         <v>293</v>
       </c>
       <c r="B288">
-        <v>0.003401360544217687</v>
+        <v>0.002915451895043732</v>
       </c>
       <c r="C288">
         <v>1</v>
       </c>
       <c r="D288">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E288">
-        <v>0.86</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F288">
-        <v>0.14</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G288" t="b">
         <v>1</v>
       </c>
       <c r="H288">
-        <v>293</v>
+        <v>342</v>
       </c>
       <c r="J288" s="1" t="s">
         <v>514</v>
@@ -17794,28 +17794,28 @@
         <v>294</v>
       </c>
       <c r="B289">
-        <v>0.003389830508474576</v>
+        <v>0.002678272514228323</v>
       </c>
       <c r="C289">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D289">
-        <v>6</v>
+        <v>222</v>
       </c>
       <c r="E289">
-        <v>0.83</v>
+        <v>0.96</v>
       </c>
       <c r="F289">
-        <v>0.17</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G289" t="b">
         <v>1</v>
       </c>
       <c r="H289">
-        <v>294</v>
+        <v>2979</v>
       </c>
       <c r="J289" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K289">
         <v>0.125</v>
@@ -17844,25 +17844,25 @@
         <v>295</v>
       </c>
       <c r="B290">
-        <v>0.002915451895043732</v>
+        <v>0.002380952380952381</v>
       </c>
       <c r="C290">
         <v>1</v>
       </c>
       <c r="D290">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="E290">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="F290">
-        <v>0.06000000000000005</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G290" t="b">
         <v>1</v>
       </c>
       <c r="H290">
-        <v>342</v>
+        <v>419</v>
       </c>
       <c r="J290" s="1" t="s">
         <v>515</v>
@@ -17894,25 +17894,25 @@
         <v>296</v>
       </c>
       <c r="B291">
-        <v>0.002678272514228323</v>
+        <v>0.002202643171806168</v>
       </c>
       <c r="C291">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D291">
-        <v>222</v>
+        <v>11</v>
       </c>
       <c r="E291">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="F291">
-        <v>0.04000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G291" t="b">
         <v>1</v>
       </c>
       <c r="H291">
-        <v>2979</v>
+        <v>453</v>
       </c>
       <c r="J291" s="1" t="s">
         <v>516</v>
@@ -17940,30 +17940,6 @@
       </c>
     </row>
     <row r="292" spans="1:17">
-      <c r="A292" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B292">
-        <v>0.002380952380952381</v>
-      </c>
-      <c r="C292">
-        <v>1</v>
-      </c>
-      <c r="D292">
-        <v>67</v>
-      </c>
-      <c r="E292">
-        <v>0.99</v>
-      </c>
-      <c r="F292">
-        <v>0.01000000000000001</v>
-      </c>
-      <c r="G292" t="b">
-        <v>1</v>
-      </c>
-      <c r="H292">
-        <v>419</v>
-      </c>
       <c r="J292" s="1" t="s">
         <v>517</v>
       </c>
@@ -17990,30 +17966,6 @@
       </c>
     </row>
     <row r="293" spans="1:17">
-      <c r="A293" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B293">
-        <v>0.002202643171806168</v>
-      </c>
-      <c r="C293">
-        <v>1</v>
-      </c>
-      <c r="D293">
-        <v>11</v>
-      </c>
-      <c r="E293">
-        <v>0.91</v>
-      </c>
-      <c r="F293">
-        <v>0.08999999999999997</v>
-      </c>
-      <c r="G293" t="b">
-        <v>1</v>
-      </c>
-      <c r="H293">
-        <v>453</v>
-      </c>
       <c r="J293" s="1" t="s">
         <v>518</v>
       </c>
@@ -18743,7 +18695,7 @@
     </row>
     <row r="321" spans="10:17">
       <c r="J321" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K321">
         <v>0.1214953271028037</v>
@@ -18951,7 +18903,7 @@
     </row>
     <row r="329" spans="10:17">
       <c r="J329" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K329">
         <v>0.1188405797101449</v>
@@ -19185,7 +19137,7 @@
     </row>
     <row r="338" spans="10:17">
       <c r="J338" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K338">
         <v>0.1176470588235294</v>
@@ -19237,7 +19189,7 @@
     </row>
     <row r="340" spans="10:17">
       <c r="J340" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K340">
         <v>0.1171171171171171</v>
@@ -19315,7 +19267,7 @@
     </row>
     <row r="343" spans="10:17">
       <c r="J343" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K343">
         <v>0.1153846153846154</v>
@@ -19393,7 +19345,7 @@
     </row>
     <row r="346" spans="10:17">
       <c r="J346" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K346">
         <v>0.113518605746585</v>
@@ -19445,7 +19397,7 @@
     </row>
     <row r="348" spans="10:17">
       <c r="J348" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K348">
         <v>0.1129032258064516</v>
@@ -20121,7 +20073,7 @@
     </row>
     <row r="374" spans="10:17">
       <c r="J374" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K374">
         <v>0.1101694915254237</v>
@@ -20277,7 +20229,7 @@
     </row>
     <row r="380" spans="10:17">
       <c r="J380" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K380">
         <v>0.1038251366120219</v>
@@ -20303,7 +20255,7 @@
     </row>
     <row r="381" spans="10:17">
       <c r="J381" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K381">
         <v>0.1037151702786378</v>
@@ -20355,7 +20307,7 @@
     </row>
     <row r="383" spans="10:17">
       <c r="J383" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K383">
         <v>0.1033681765389082</v>
@@ -20381,7 +20333,7 @@
     </row>
     <row r="384" spans="10:17">
       <c r="J384" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K384">
         <v>0.1031746031746032</v>
@@ -20407,7 +20359,7 @@
     </row>
     <row r="385" spans="10:17">
       <c r="J385" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K385">
         <v>0.1021897810218978</v>
@@ -20433,7 +20385,7 @@
     </row>
     <row r="386" spans="10:17">
       <c r="J386" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K386">
         <v>0.1014492753623188</v>
@@ -21083,7 +21035,7 @@
     </row>
     <row r="411" spans="10:17">
       <c r="J411" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K411">
         <v>0.09876543209876543</v>
@@ -21109,7 +21061,7 @@
     </row>
     <row r="412" spans="10:17">
       <c r="J412" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K412">
         <v>0.09836065573770492</v>
@@ -21135,7 +21087,7 @@
     </row>
     <row r="413" spans="10:17">
       <c r="J413" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K413">
         <v>0.09734513274336283</v>
@@ -21291,7 +21243,7 @@
     </row>
     <row r="419" spans="10:17">
       <c r="J419" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K419">
         <v>0.09523809523809523</v>
@@ -21395,7 +21347,7 @@
     </row>
     <row r="423" spans="10:17">
       <c r="J423" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K423">
         <v>0.09230769230769231</v>
@@ -21733,7 +21685,7 @@
     </row>
     <row r="436" spans="10:17">
       <c r="J436" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K436">
         <v>0.09090909090909091</v>
@@ -21759,7 +21711,7 @@
     </row>
     <row r="437" spans="10:17">
       <c r="J437" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K437">
         <v>0.09090909090909091</v>
@@ -22201,7 +22153,7 @@
     </row>
     <row r="454" spans="10:17">
       <c r="J454" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K454">
         <v>0.09009009009009009</v>
@@ -22253,7 +22205,7 @@
     </row>
     <row r="456" spans="10:17">
       <c r="J456" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K456">
         <v>0.08974358974358974</v>
@@ -22331,7 +22283,7 @@
     </row>
     <row r="459" spans="10:17">
       <c r="J459" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K459">
         <v>0.08771929824561403</v>
@@ -22461,7 +22413,7 @@
     </row>
     <row r="464" spans="10:17">
       <c r="J464" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K464">
         <v>0.08661417322834646</v>
@@ -22591,7 +22543,7 @@
     </row>
     <row r="469" spans="10:17">
       <c r="J469" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K469">
         <v>0.0851063829787234</v>
@@ -22799,7 +22751,7 @@
     </row>
     <row r="477" spans="10:17">
       <c r="J477" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K477">
         <v>0.08333333333333333</v>
@@ -23163,7 +23115,7 @@
     </row>
     <row r="491" spans="10:17">
       <c r="J491" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K491">
         <v>0.08</v>
@@ -23215,7 +23167,7 @@
     </row>
     <row r="493" spans="10:17">
       <c r="J493" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K493">
         <v>0.07954545454545454</v>
@@ -23735,7 +23687,7 @@
     </row>
     <row r="513" spans="10:17">
       <c r="J513" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K513">
         <v>0.07692307692307693</v>
@@ -24073,7 +24025,7 @@
     </row>
     <row r="526" spans="10:17">
       <c r="J526" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K526">
         <v>0.07216494845360824</v>
@@ -24203,7 +24155,7 @@
     </row>
     <row r="531" spans="10:17">
       <c r="J531" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K531">
         <v>0.07142857142857142</v>
@@ -24333,7 +24285,7 @@
     </row>
     <row r="536" spans="10:17">
       <c r="J536" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K536">
         <v>0.07142857142857142</v>
@@ -24437,7 +24389,7 @@
     </row>
     <row r="540" spans="10:17">
       <c r="J540" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K540">
         <v>0.07142857142857142</v>
@@ -24645,7 +24597,7 @@
     </row>
     <row r="548" spans="10:17">
       <c r="J548" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K548">
         <v>0.07142857142857142</v>
@@ -24957,7 +24909,7 @@
     </row>
     <row r="560" spans="10:17">
       <c r="J560" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K560">
         <v>0.06702160977137488</v>
@@ -25633,7 +25585,7 @@
     </row>
     <row r="586" spans="10:17">
       <c r="J586" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K586">
         <v>0.06382978723404255</v>
@@ -25841,7 +25793,7 @@
     </row>
     <row r="594" spans="10:17">
       <c r="J594" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K594">
         <v>0.0625</v>
@@ -26049,7 +26001,7 @@
     </row>
     <row r="602" spans="10:17">
       <c r="J602" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K602">
         <v>0.06147186147186147</v>
@@ -26075,7 +26027,7 @@
     </row>
     <row r="603" spans="10:17">
       <c r="J603" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K603">
         <v>0.06122448979591837</v>
@@ -26101,7 +26053,7 @@
     </row>
     <row r="604" spans="10:17">
       <c r="J604" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K604">
         <v>0.06060606060606061</v>
@@ -26673,7 +26625,7 @@
     </row>
     <row r="626" spans="10:17">
       <c r="J626" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K626">
         <v>0.05660377358490566</v>
@@ -26777,7 +26729,7 @@
     </row>
     <row r="630" spans="10:17">
       <c r="J630" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K630">
         <v>0.05555555555555555</v>
@@ -26907,7 +26859,7 @@
     </row>
     <row r="635" spans="10:17">
       <c r="J635" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K635">
         <v>0.05555555555555555</v>
@@ -27453,7 +27405,7 @@
     </row>
     <row r="656" spans="10:17">
       <c r="J656" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K656">
         <v>0.05263157894736842</v>
@@ -28129,7 +28081,7 @@
     </row>
     <row r="682" spans="10:17">
       <c r="J682" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K682">
         <v>0.04910714285714286</v>
@@ -28597,7 +28549,7 @@
     </row>
     <row r="700" spans="10:17">
       <c r="J700" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K700">
         <v>0.04735376044568245</v>
@@ -28623,7 +28575,7 @@
     </row>
     <row r="701" spans="10:17">
       <c r="J701" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K701">
         <v>0.04705882352941176</v>
@@ -28727,7 +28679,7 @@
     </row>
     <row r="705" spans="10:17">
       <c r="J705" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K705">
         <v>0.04615384615384616</v>
@@ -28883,7 +28835,7 @@
     </row>
     <row r="711" spans="10:17">
       <c r="J711" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K711">
         <v>0.04545454545454546</v>
@@ -29091,7 +29043,7 @@
     </row>
     <row r="719" spans="10:17">
       <c r="J719" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K719">
         <v>0.04395604395604396</v>
@@ -29117,7 +29069,7 @@
     </row>
     <row r="720" spans="10:17">
       <c r="J720" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K720">
         <v>0.04347826086956522</v>
@@ -29247,7 +29199,7 @@
     </row>
     <row r="725" spans="10:17">
       <c r="J725" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K725">
         <v>0.04347826086956522</v>
@@ -29273,7 +29225,7 @@
     </row>
     <row r="726" spans="10:17">
       <c r="J726" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K726">
         <v>0.04347826086956522</v>
@@ -29663,7 +29615,7 @@
     </row>
     <row r="741" spans="10:17">
       <c r="J741" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K741">
         <v>0.04</v>
@@ -29741,7 +29693,7 @@
     </row>
     <row r="744" spans="10:17">
       <c r="J744" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K744">
         <v>0.04</v>
@@ -29871,7 +29823,7 @@
     </row>
     <row r="749" spans="10:17">
       <c r="J749" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K749">
         <v>0.03846153846153846</v>
@@ -30027,7 +29979,7 @@
     </row>
     <row r="755" spans="10:17">
       <c r="J755" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K755">
         <v>0.03703703703703703</v>
@@ -30183,7 +30135,7 @@
     </row>
     <row r="761" spans="10:17">
       <c r="J761" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K761">
         <v>0.03680981595092025</v>
@@ -30261,7 +30213,7 @@
     </row>
     <row r="764" spans="10:17">
       <c r="J764" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K764">
         <v>0.03636363636363636</v>
@@ -30417,7 +30369,7 @@
     </row>
     <row r="770" spans="10:17">
       <c r="J770" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K770">
         <v>0.03571428571428571</v>
@@ -30859,7 +30811,7 @@
     </row>
     <row r="787" spans="10:17">
       <c r="J787" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K787">
         <v>0.03232533889468196</v>
@@ -31015,7 +30967,7 @@
     </row>
     <row r="793" spans="10:17">
       <c r="J793" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K793">
         <v>0.03136531365313653</v>
@@ -31093,7 +31045,7 @@
     </row>
     <row r="796" spans="10:17">
       <c r="J796" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K796">
         <v>0.03061224489795918</v>
@@ -31405,7 +31357,7 @@
     </row>
     <row r="808" spans="10:17">
       <c r="J808" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K808">
         <v>0.02857142857142857</v>
@@ -31457,7 +31409,7 @@
     </row>
     <row r="810" spans="10:17">
       <c r="J810" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K810">
         <v>0.02830188679245283</v>
@@ -31847,7 +31799,7 @@
     </row>
     <row r="825" spans="10:17">
       <c r="J825" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K825">
         <v>0.02564102564102564</v>
@@ -31925,7 +31877,7 @@
     </row>
     <row r="828" spans="10:17">
       <c r="J828" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K828">
         <v>0.025</v>
@@ -32029,7 +31981,7 @@
     </row>
     <row r="832" spans="10:17">
       <c r="J832" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K832">
         <v>0.02380952380952381</v>
@@ -32315,7 +32267,7 @@
     </row>
     <row r="843" spans="10:17">
       <c r="J843" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K843">
         <v>0.02159827213822894</v>
@@ -32341,7 +32293,7 @@
     </row>
     <row r="844" spans="10:17">
       <c r="J844" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K844">
         <v>0.02150537634408602</v>
@@ -32445,7 +32397,7 @@
     </row>
     <row r="848" spans="10:17">
       <c r="J848" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K848">
         <v>0.02006688963210702</v>
@@ -32549,7 +32501,7 @@
     </row>
     <row r="852" spans="10:17">
       <c r="J852" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K852">
         <v>0.01754385964912281</v>
@@ -32627,7 +32579,7 @@
     </row>
     <row r="855" spans="10:17">
       <c r="J855" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K855">
         <v>0.01724137931034483</v>
@@ -32705,7 +32657,7 @@
     </row>
     <row r="858" spans="10:17">
       <c r="J858" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K858">
         <v>0.01672240802675585</v>
@@ -32861,7 +32813,7 @@
     </row>
     <row r="864" spans="10:17">
       <c r="J864" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K864">
         <v>0.01333333333333333</v>
@@ -32887,7 +32839,7 @@
     </row>
     <row r="865" spans="10:17">
       <c r="J865" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K865">
         <v>0.01276595744680851</v>
@@ -32991,7 +32943,7 @@
     </row>
     <row r="869" spans="10:17">
       <c r="J869" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K869">
         <v>0.01027397260273973</v>
@@ -33069,7 +33021,7 @@
     </row>
     <row r="872" spans="10:17">
       <c r="J872" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K872">
         <v>0.009523809523809525</v>
